--- a/medicine/Enfance/L'Esclave_de_Jérusalem/L'Esclave_de_Jérusalem.xlsx
+++ b/medicine/Enfance/L'Esclave_de_Jérusalem/L'Esclave_de_Jérusalem.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>L%27Esclave_de_J%C3%A9rusalem</t>
+          <t>L'Esclave_de_Jérusalem</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 L'Esclave de Jérusalem (The Slave-Girl from Jerusalem) est le treizième volume de la série de romans écrits par Caroline Lawrence, Les Mystères romains, publié en France, aux éditions Milan, le 19 février 2009. L'action de ce roman historique se situe sous la Rome antique.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>L%27Esclave_de_J%C3%A9rusalem</t>
+          <t>L'Esclave_de_Jérusalem</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,6 +525,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -520,7 +534,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>L%27Esclave_de_J%C3%A9rusalem</t>
+          <t>L'Esclave_de_Jérusalem</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -538,7 +552,9 @@
           <t>Parutions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Milan (Poche Histoire), février 2009,  (ISBN 978-2-7459-5402-2)</t>
         </is>
@@ -550,7 +566,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>L%27Esclave_de_J%C3%A9rusalem</t>
+          <t>L'Esclave_de_Jérusalem</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -568,7 +584,9 @@
           <t>Lien externe</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Site officiel des éditions Milan
  Portail de la Rome antique   Portail de la littérature américaine   Portail de la littérature d’enfance et de jeunesse                   </t>
